--- a/biology/Zoologie/Diversidoris/Diversidoris.xlsx
+++ b/biology/Zoologie/Diversidoris/Diversidoris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Diversidoris est un genre de nudibranches de la famille des Chromodorididae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (11 avril 2021)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (11 avril 2021) :
 Diversidoris aurantionodulosa Rudman, 1987
 Diversidoris crocea (Rudman, 1986)
 Diversidoris flava (Eliot, 1904)
@@ -547,7 +561,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) W. B. Rudman, « The Chromodorididae (Opisthobranchia: Mollusca) of the Indo-West Pacific: Chromodoris epicuria, C. aureopurpurea, C. annulata, C. coi and Risbecia tryoni colour groups », Zoological Journal of the Linnean Society, Linnean Society of London et OUP, vol. 90, no 4,‎ août 1987, p. 305-407 (ISSN 1096-3642 et 0024-4082, OCLC 01799617, DOI 10.1111/J.1096-3642.1987.TB01357.X)</t>
         </is>
